--- a/output/dev-report.xlsx
+++ b/output/dev-report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="393">
   <si>
     <t>Título</t>
   </si>
@@ -29,15 +29,21 @@
     <t>Horas Estipuladas</t>
   </si>
   <si>
+    <t>Progresso (%)</t>
+  </si>
+  <si>
+    <t>IN PROGRESS INTERVAL</t>
+  </si>
+  <si>
+    <t>IN PROGRESS</t>
+  </si>
+  <si>
     <t>BACKLOG</t>
   </si>
   <si>
     <t>TO DO</t>
   </si>
   <si>
-    <t>IN PROGRESS</t>
-  </si>
-  <si>
     <t>CODE REVIEW</t>
   </si>
   <si>
@@ -62,7 +68,7 @@
     <t>Ready to Archive</t>
   </si>
   <si>
-    <t>MELHORIA - Mudança Integração Livelo V1 -PENDENTE</t>
+    <t>MELHORIA - Mudança Integração Livelo V1</t>
   </si>
   <si>
     <t>Angelo Demarchi</t>
@@ -74,19 +80,55 @@
     <t>109074</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2858,3%</t>
+  </si>
+  <si>
+    <t>35h 33m 06s</t>
+  </si>
+  <si>
+    <t>85h 44m 54s</t>
+  </si>
+  <si>
+    <t>00h 01m 11s</t>
+  </si>
+  <si>
+    <t>398h 06m 32s</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>00h 01m 11s</t>
-  </si>
-  <si>
-    <t>367h 30m 48s</t>
-  </si>
-  <si>
-    <t>76h 20m 26s</t>
-  </si>
-  <si>
-    <t>MELHORIA - Adicionar Data do Período da Semana na tela de Metas Semanais -PENDENTE</t>
+    <t>MELHORIA - Adequação Forma de Faturamento - Fluxo idêntico ao Prateleira Infinita</t>
+  </si>
+  <si>
+    <t>LIVE! Clothing</t>
+  </si>
+  <si>
+    <t>108712</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>198,0%</t>
+  </si>
+  <si>
+    <t>24h 45m 38s</t>
+  </si>
+  <si>
+    <t>59h 24m 07s</t>
+  </si>
+  <si>
+    <t>1059h 00m 41s</t>
+  </si>
+  <si>
+    <t>133h 52m 45s</t>
+  </si>
+  <si>
+    <t>MELHORIA - Adicionar Data do Período da Semana na tela de Metas Semanais</t>
   </si>
   <si>
     <t>ShopLIVE!</t>
@@ -95,16 +137,52 @@
     <t>108286</t>
   </si>
   <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>01h 03m 17s</t>
+  </si>
+  <si>
     <t>1751h 55m 30s</t>
   </si>
   <si>
     <t>793h 36m 38s</t>
   </si>
   <si>
-    <t>01h 03m 17s</t>
-  </si>
-  <si>
-    <t>09h 55m 03s</t>
+    <t>21h 03m 00s</t>
+  </si>
+  <si>
+    <t>00h 12m 12s</t>
+  </si>
+  <si>
+    <t>28h 40m 03s</t>
+  </si>
+  <si>
+    <t>Melhoria: Visão mês a mês do planejamento</t>
+  </si>
+  <si>
+    <t>105895</t>
+  </si>
+  <si>
+    <t>02h 26m 58s</t>
+  </si>
+  <si>
+    <t>128h 03m 37s</t>
+  </si>
+  <si>
+    <t>4229h 48m 54s</t>
+  </si>
+  <si>
+    <t>135h 09m 29s</t>
+  </si>
+  <si>
+    <t>05h 42m 35s</t>
+  </si>
+  <si>
+    <t>15h 02m 26s</t>
+  </si>
+  <si>
+    <t>98h 35m 42s</t>
   </si>
   <si>
     <t>Melhoria: Implementar H1 nas categorias - SEO</t>
@@ -116,22 +194,25 @@
     <t>108824</t>
   </si>
   <si>
+    <t>00h 15m 59s</t>
+  </si>
+  <si>
+    <t>35h 17m 37s</t>
+  </si>
+  <si>
     <t>103h 31m 54s</t>
   </si>
   <si>
-    <t>544h 01m 07s</t>
-  </si>
-  <si>
-    <t>35h 02m 10s</t>
-  </si>
-  <si>
-    <t>02h 41m 22s</t>
-  </si>
-  <si>
-    <t>45h 42m 05s</t>
-  </si>
-  <si>
-    <t>121h 11m 19s</t>
+    <t>553h 47m 35s</t>
+  </si>
+  <si>
+    <t>02h 53m 28s</t>
+  </si>
+  <si>
+    <t>47h 54m 13s</t>
+  </si>
+  <si>
+    <t>148h 45m 22s</t>
   </si>
   <si>
     <t>01h 37m 40s</t>
@@ -152,13 +233,16 @@
     <t>105362</t>
   </si>
   <si>
+    <t>01h 55m 28s</t>
+  </si>
+  <si>
+    <t>344h 56m 18s</t>
+  </si>
+  <si>
     <t>28h 40m 26s</t>
   </si>
   <si>
-    <t>2577h 24m 17s</t>
-  </si>
-  <si>
-    <t>344h 56m 18s</t>
+    <t>2617h 24m 29s</t>
   </si>
   <si>
     <t>306h 26m 53s</t>
@@ -173,7 +257,7 @@
     <t>54h 31m 38s</t>
   </si>
   <si>
-    <t>MELHORIA - GERAR UM ACESSO ADMIN -PENDENTE</t>
+    <t>MELHORIA - GERAR UM ACESSO ADMIN</t>
   </si>
   <si>
     <t>Geiso Herrera</t>
@@ -185,31 +269,61 @@
     <t>109238</t>
   </si>
   <si>
+    <t>24h 09m 50s</t>
+  </si>
+  <si>
     <t>25h 20m 41s</t>
   </si>
   <si>
-    <t>13h 23m 28s</t>
-  </si>
-  <si>
-    <t>REQUISIÇÃO - Melhorias importação fotos -PENDENTE</t>
+    <t>29h 13m 50s</t>
+  </si>
+  <si>
+    <t>REQUISIÇÃO - Melhoria seletor fotos</t>
   </si>
   <si>
     <t>Sahra Flôhr</t>
   </si>
   <si>
+    <t>109026</t>
+  </si>
+  <si>
+    <t>02h 09m 43s</t>
+  </si>
+  <si>
+    <t>02h 09m 40s</t>
+  </si>
+  <si>
+    <t>233h 51m 58s</t>
+  </si>
+  <si>
+    <t>316h 20m 38s</t>
+  </si>
+  <si>
+    <t>REQUISIÇÃO - Melhorias importação fotos</t>
+  </si>
+  <si>
     <t>109027</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>419,6%</t>
+  </si>
+  <si>
+    <t>53h 26m 13s</t>
+  </si>
+  <si>
+    <t>188h 49m 23s</t>
+  </si>
+  <si>
     <t>215h 04m 30s</t>
   </si>
   <si>
-    <t>135h 15m 39s</t>
-  </si>
-  <si>
-    <t>162h 01m 58s</t>
-  </si>
-  <si>
-    <t>MELHORIA - Melhoria Layout -PENDENTE</t>
+    <t>148h 28m 26s</t>
+  </si>
+  <si>
+    <t>MELHORIA - Melhoria Layout</t>
   </si>
   <si>
     <t>Tiago Felipe Ronchi</t>
@@ -218,16 +332,19 @@
     <t>107463</t>
   </si>
   <si>
+    <t>53h 34m 36s</t>
+  </si>
+  <si>
+    <t>94h 08m 15s</t>
+  </si>
+  <si>
     <t>4421h 41m 17s</t>
   </si>
   <si>
     <t>96h 33m 11s</t>
   </si>
   <si>
-    <t>54h 08m 03s</t>
-  </si>
-  <si>
-    <t>MELHORIA - PROJETO - Pesquisa de Satisfação Whatsapp - Fase 5 (Plug-in) -PENDENTE</t>
+    <t>MELHORIA - PROJETO - Pesquisa de Satisfação Whatsapp - Fase 5 (Plug-in)</t>
   </si>
   <si>
     <t>Tiago Oliveira</t>
@@ -236,37 +353,64 @@
     <t>109158</t>
   </si>
   <si>
+    <t>53h 28m 22s</t>
+  </si>
+  <si>
+    <t>53h 28m 19s</t>
+  </si>
+  <si>
     <t>39h 52m 08s</t>
   </si>
   <si>
     <t>145h 42m 54s</t>
   </si>
   <si>
-    <t>13h 28m 07s</t>
-  </si>
-  <si>
-    <t>MELHORIA - PROJETO - Pesquisa de Satisfação Whatsapp - Fase 2 (Popular cadastros) -PENDENTE</t>
+    <t>MELHORIA - PROJETO - Pesquisa de Satisfação Whatsapp - Fase 2 (Popular cadastros)</t>
   </si>
   <si>
     <t>109155</t>
   </si>
   <si>
+    <t>33h 30m 37s</t>
+  </si>
+  <si>
+    <t>119h 55m 52s</t>
+  </si>
+  <si>
     <t>40h 09m 07s</t>
   </si>
   <si>
     <t>25h 46m 41s</t>
   </si>
   <si>
-    <t>119h 55m 52s</t>
-  </si>
-  <si>
     <t>00h 47m 19s</t>
   </si>
   <si>
-    <t>12h 41m 04s</t>
-  </si>
-  <si>
-    <t>INCIDENTE URGENTE -  NAO GEROU LINK 14/03 - André Ganguilhet Ganguilhet -PENDENTE</t>
+    <t>52h 41m 16s</t>
+  </si>
+  <si>
+    <t>MELHORIA - Configurar Webhook PIX - ITAU</t>
+  </si>
+  <si>
+    <t>Yago Costa</t>
+  </si>
+  <si>
+    <t>109265</t>
+  </si>
+  <si>
+    <t>02h 50m 28s</t>
+  </si>
+  <si>
+    <t>00h 22m 40s</t>
+  </si>
+  <si>
+    <t>18h 47m 41s</t>
+  </si>
+  <si>
+    <t>27h 39m 17s</t>
+  </si>
+  <si>
+    <t>INCIDENTE URGENTE -  NAO GEROU LINK 14/03 - André Ganguilhet Ganguilhet</t>
   </si>
   <si>
     <t>Andre Ganguilhet</t>
@@ -275,85 +419,121 @@
     <t>109248</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>00h 10m 19s</t>
+  </si>
+  <si>
     <t>29h 41m 05s</t>
   </si>
   <si>
-    <t>07h 34m 53s</t>
-  </si>
-  <si>
-    <t>00h 10m 19s</t>
-  </si>
-  <si>
-    <t>INCIDENTE URGENTE -  Problema para subir foto - Larissa Zocatelli -PENDENTE</t>
+    <t>47h 35m 05s</t>
+  </si>
+  <si>
+    <t>INCIDENTE URGENTE -  Problema para subir foto - Larissa Zocatelli</t>
   </si>
   <si>
     <t>109230</t>
   </si>
   <si>
+    <t>02h 58m 43s</t>
+  </si>
+  <si>
     <t>05h 33m 27s</t>
   </si>
   <si>
-    <t>02h 58m 43s</t>
-  </si>
-  <si>
-    <t>30h 20m 38s</t>
-  </si>
-  <si>
-    <t>INCIDENTE - Parametrizar variações de produto - SEO -PENDENTE</t>
+    <t>70h 20m 50s</t>
+  </si>
+  <si>
+    <t>INCIDENTE - Parametrizar variações de produto - SEO</t>
   </si>
   <si>
     <t>108139</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>113,2%</t>
+  </si>
+  <si>
+    <t>68h 44m 04s</t>
+  </si>
+  <si>
+    <t>181h 06m 42s</t>
+  </si>
+  <si>
     <t>2062h 35m 55s</t>
   </si>
   <si>
-    <t>779h 49m 55s</t>
-  </si>
-  <si>
-    <t>145h 23m 27s</t>
-  </si>
-  <si>
-    <t>INCIDENTE URGENTE -  OPÇÃO RETIRADA EM LOJA NÃO ESTÁ FUNCIONANDO - Tabita Ersching -PENDENTE</t>
+    <t>784h 06m 52s</t>
+  </si>
+  <si>
+    <t>INCIDENTE - Problema de exibição de resultados no site</t>
+  </si>
+  <si>
+    <t>Felipe Chiodini Bona</t>
+  </si>
+  <si>
+    <t>LIVE! Experience</t>
+  </si>
+  <si>
+    <t>109210</t>
+  </si>
+  <si>
+    <t>07h 49m 24s</t>
+  </si>
+  <si>
+    <t>88h 34m 47s</t>
+  </si>
+  <si>
+    <t>80h 48m 03s</t>
+  </si>
+  <si>
+    <t>INCIDENTE URGENTE -  OPÇÃO RETIRADA EM LOJA NÃO ESTÁ FUNCIONANDO - Tabita Ersching</t>
   </si>
   <si>
     <t>109251</t>
   </si>
   <si>
+    <t>01h 30m 28s</t>
+  </si>
+  <si>
     <t>00h 03m 00s</t>
   </si>
   <si>
-    <t>30h 30m 32s</t>
-  </si>
-  <si>
-    <t>01h 30m 28s</t>
-  </si>
-  <si>
-    <t>INCIDENTE - CUPOM LINK CARRINHO ABANDONADO -PENDENTE</t>
+    <t>70h 30m 44s</t>
+  </si>
+  <si>
+    <t>INCIDENTE - CUPOM LINK CARRINHO ABANDONADO</t>
   </si>
   <si>
     <t>109204</t>
   </si>
   <si>
+    <t>01h 16m 40s</t>
+  </si>
+  <si>
     <t>93h 20m 31s</t>
   </si>
   <si>
     <t>01h 34m 04s</t>
   </si>
   <si>
-    <t>01h 16m 40s</t>
-  </si>
-  <si>
     <t>00h 37m 49s</t>
   </si>
   <si>
     <t>00h 13m 41s</t>
   </si>
   <si>
-    <t>32h 45m 03s</t>
-  </si>
-  <si>
-    <t>INCIDENTE - Cashback Incorreto - CPF 658.545.273-91 -PENDENTE</t>
+    <t>72h 45m 15s</t>
+  </si>
+  <si>
+    <t>INCIDENTE - Cashback Incorreto - CPF 658.545.273-91</t>
   </si>
   <si>
     <t>Cashback</t>
@@ -362,16 +542,22 @@
     <t>109138</t>
   </si>
   <si>
+    <t>194,1%</t>
+  </si>
+  <si>
+    <t>00h 28m 40s</t>
+  </si>
+  <si>
+    <t>01h 56m 27s</t>
+  </si>
+  <si>
     <t>01h 41m 14s</t>
   </si>
   <si>
-    <t>203h 42m 52s</t>
-  </si>
-  <si>
-    <t>01h 56m 27s</t>
-  </si>
-  <si>
-    <t>INCIDENTE - Exclusão de relacionamentos existentes -PENDENTE</t>
+    <t>243h 43m 04s</t>
+  </si>
+  <si>
+    <t>INCIDENTE - Exclusão de relacionamentos existentes</t>
   </si>
   <si>
     <t>Vinicius Vivian</t>
@@ -380,15 +566,18 @@
     <t>108036</t>
   </si>
   <si>
+    <t>48h 08m 07s</t>
+  </si>
+  <si>
+    <t>52h 00m 28s</t>
+  </si>
+  <si>
     <t>2302h 25m 02s</t>
   </si>
   <si>
     <t>433h 50m 56s</t>
   </si>
   <si>
-    <t>12h 00m 16s</t>
-  </si>
-  <si>
     <t>00h 15m 33s</t>
   </si>
   <si>
@@ -398,10 +587,7 @@
     <t>431h 39m 27s</t>
   </si>
   <si>
-    <t>INCIDENTE - Possível Impacto em Venda -  Erro devolução - -PENDENTE</t>
-  </si>
-  <si>
-    <t>Yago Costa</t>
+    <t>INCIDENTE - Possível Impacto em Venda -  Erro devolução -</t>
   </si>
   <si>
     <t>LIVE! Oficial, External Validation</t>
@@ -410,223 +596,331 @@
     <t>109240</t>
   </si>
   <si>
+    <t>00h 36m 30s</t>
+  </si>
+  <si>
     <t>00h 02m 33s</t>
   </si>
   <si>
-    <t>00h 36m 30s</t>
-  </si>
-  <si>
     <t>00h 02m 29s</t>
   </si>
   <si>
     <t>30h 20m 47s</t>
   </si>
   <si>
-    <t>06h 24m 06s</t>
-  </si>
-  <si>
-    <t>INCIDENTE - Pedido de troca não gerado -PENDENTE</t>
+    <t>46h 24m 18s</t>
+  </si>
+  <si>
+    <t>INCIDENTE - Pedido de troca não gerado</t>
   </si>
   <si>
     <t>109228</t>
   </si>
   <si>
+    <t>00h 20m 54s</t>
+  </si>
+  <si>
     <t>00h 11m 58s</t>
   </si>
   <si>
     <t>01h 16m 38s</t>
   </si>
   <si>
-    <t>00h 20m 54s</t>
-  </si>
-  <si>
     <t>00h 06m 39s</t>
   </si>
   <si>
     <t>30h 32m 22s</t>
   </si>
   <si>
-    <t>06h 24m 19s</t>
-  </si>
-  <si>
-    <t>INCIDENTE URGENTE -  NF de devolução paradas  - Larissa Zocatelli -PENDENTE</t>
+    <t>46h 24m 31s</t>
+  </si>
+  <si>
+    <t>INCIDENTE URGENTE -  NF de devolução paradas  - Larissa Zocatelli</t>
   </si>
   <si>
     <t>109226</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4569,5%</t>
+  </si>
+  <si>
+    <t>33h 21m 06s</t>
+  </si>
+  <si>
+    <t>91h 23m 24s</t>
+  </si>
+  <si>
     <t>00h 26m 06s</t>
   </si>
   <si>
     <t>07h 38m 59s</t>
   </si>
   <si>
-    <t>91h 23m 24s</t>
-  </si>
-  <si>
     <t>00h 01m 39s</t>
   </si>
   <si>
-    <t>05h 57m 16s</t>
-  </si>
-  <si>
-    <t>INCIDENTE URGENTE -  Estorno do Pix não consta no historico - LARISSA ZOCATELLI -PENDENTE</t>
+    <t>15h 24m 54s</t>
+  </si>
+  <si>
+    <t>30h 32m 34s</t>
+  </si>
+  <si>
+    <t>INCIDENTE URGENTE -  Estorno do Pix não consta no historico - LARISSA ZOCATELLI</t>
   </si>
   <si>
     <t>109028</t>
   </si>
   <si>
+    <t>1439,9%</t>
+  </si>
+  <si>
+    <t>28h 47m 55s</t>
+  </si>
+  <si>
     <t>474h 26m 20s</t>
   </si>
   <si>
     <t>00h 36m 35s</t>
   </si>
   <si>
-    <t>28h 47m 55s</t>
-  </si>
-  <si>
     <t>00h 05m 51s</t>
   </si>
   <si>
-    <t>07h 15m 25s</t>
-  </si>
-  <si>
-    <t>REQUISIÇÃO - Pedidos não importados -PENDENTE</t>
+    <t>47h 15m 37s</t>
+  </si>
+  <si>
+    <t>REQUISIÇÃO - Pedidos não importados</t>
   </si>
   <si>
     <t>109260</t>
   </si>
   <si>
+    <t>00h 04m 52s</t>
+  </si>
+  <si>
     <t>00h 09m 03s</t>
   </si>
   <si>
-    <t>00h 04m 52s</t>
-  </si>
-  <si>
-    <t>12h 59m 06s</t>
-  </si>
-  <si>
-    <t>REQUISIÇÃO - MINHAS DEVOLUÇÕES - ERRO -PENDENTE</t>
+    <t>52h 59m 18s</t>
+  </si>
+  <si>
+    <t>REQUISIÇÃO - MINHAS DEVOLUÇÕES - ERRO</t>
   </si>
   <si>
     <t>109254</t>
   </si>
   <si>
+    <t>01h 40m 12s</t>
+  </si>
+  <si>
     <t>18h 46m 03s</t>
   </si>
   <si>
     <t>00h 58m 52s</t>
   </si>
   <si>
-    <t>01h 40m 12s</t>
-  </si>
-  <si>
-    <t>09h 03m 20s</t>
-  </si>
-  <si>
-    <t>REQUISIÇÃO - Alteração Banners - Seja um revendedor -PENDENTE</t>
+    <t>49h 03m 32s</t>
+  </si>
+  <si>
+    <t>REQUISIÇÃO - Alteração Banners - Página Busca</t>
+  </si>
+  <si>
+    <t>109281</t>
+  </si>
+  <si>
+    <t>00h 16m 18s</t>
+  </si>
+  <si>
+    <t>03h 17m 10s</t>
+  </si>
+  <si>
+    <t>00h 07m 30s</t>
+  </si>
+  <si>
+    <t>REQUISIÇÃO - Alteração Banners - Seja um revendedor</t>
   </si>
   <si>
     <t>108998</t>
   </si>
   <si>
+    <t>00h 43m 18s</t>
+  </si>
+  <si>
     <t>522h 44m 06s</t>
   </si>
   <si>
     <t>04h 30m 16s</t>
   </si>
   <si>
-    <t>00h 43m 18s</t>
-  </si>
-  <si>
     <t>00h 09m 10s</t>
   </si>
   <si>
     <t>00h 02m 03s</t>
   </si>
   <si>
-    <t>08h 22m 32s</t>
-  </si>
-  <si>
-    <t>REQUISIÇÃO - Tempo de corte -PENDENTE</t>
+    <t>48h 22m 44s</t>
+  </si>
+  <si>
+    <t>Ajuste: Tag H1 categorias - SEO</t>
+  </si>
+  <si>
+    <t>108187</t>
+  </si>
+  <si>
+    <t>00h 06m 49s</t>
+  </si>
+  <si>
+    <t>01h 45m 01s</t>
+  </si>
+  <si>
+    <t>1982h 53m 41s</t>
+  </si>
+  <si>
+    <t>21h 15m 55s</t>
+  </si>
+  <si>
+    <t>09h 40m 07s</t>
+  </si>
+  <si>
+    <t>19h 20m 34s</t>
+  </si>
+  <si>
+    <t>45h 15m 07s</t>
+  </si>
+  <si>
+    <t>01h 20m 26s</t>
+  </si>
+  <si>
+    <t>95h 58m 10s</t>
+  </si>
+  <si>
+    <t>703h 43m 06s</t>
+  </si>
+  <si>
+    <t>REQUISIÇÃO - Tempo de corte</t>
   </si>
   <si>
     <t>Capitol</t>
   </si>
   <si>
-    <t>LIVE! Experience</t>
-  </si>
-  <si>
     <t>109194</t>
   </si>
   <si>
+    <t>07h 13m 21s</t>
+  </si>
+  <si>
     <t>00h 25m 17s</t>
   </si>
   <si>
     <t>135h 47m 57s</t>
   </si>
   <si>
-    <t>07h 13m 21s</t>
-  </si>
-  <si>
     <t>00h 58m 00s</t>
   </si>
   <si>
-    <t>07h 24m 03s</t>
-  </si>
-  <si>
-    <t>REQUISIÇÃO - Imagem cortando na PDP Desktop -PENDENTE</t>
-  </si>
-  <si>
-    <t>LIVE! Clothing</t>
+    <t>47h 24m 15s</t>
+  </si>
+  <si>
+    <t>REQUISIÇÃO - Ajustes no previously seen do site</t>
+  </si>
+  <si>
+    <t>108560</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>413,1%</t>
+  </si>
+  <si>
+    <t>24h 47m 23s</t>
+  </si>
+  <si>
+    <t>24h 47m 20s</t>
+  </si>
+  <si>
+    <t>1630h 29m 05s</t>
+  </si>
+  <si>
+    <t>REQUISIÇÃO - Imagem cortando na PDP Desktop</t>
   </si>
   <si>
     <t>108559</t>
   </si>
   <si>
+    <t>00h 56m 22s</t>
+  </si>
+  <si>
+    <t>403h 31m 09s</t>
+  </si>
+  <si>
     <t>839h 13m 40s</t>
   </si>
   <si>
-    <t>364h 40m 56s</t>
-  </si>
-  <si>
-    <t>403h 31m 09s</t>
-  </si>
-  <si>
-    <t>02h 17m 04s</t>
-  </si>
-  <si>
-    <t>04h 46m 19s</t>
+    <t>396h 03m 31s</t>
+  </si>
+  <si>
+    <t>02h 32m 27s</t>
+  </si>
+  <si>
+    <t>05h 01m 13s</t>
+  </si>
+  <si>
+    <t>01h 34m 44s</t>
+  </si>
+  <si>
+    <t>00h 04m 14s</t>
   </si>
   <si>
     <t>00h 47m 08s</t>
   </si>
   <si>
-    <t>REQUISIÇÃO - Duplicação de resultado -PENDENTE</t>
-  </si>
-  <si>
-    <t>Felipe Chiodini Bona</t>
+    <t>06h 28m 22s</t>
+  </si>
+  <si>
+    <t>REQUISIÇÃO - Integração Cadastro de Produtos - SOMENTE TAMANHOS #Revisao</t>
+  </si>
+  <si>
+    <t>Diego Sena</t>
+  </si>
+  <si>
+    <t>107170</t>
+  </si>
+  <si>
+    <t>01h 44m 17s</t>
+  </si>
+  <si>
+    <t>1341h 01m 13s</t>
+  </si>
+  <si>
+    <t>479h 26m 09s</t>
+  </si>
+  <si>
+    <t>REQUISIÇÃO - Duplicação de resultado</t>
   </si>
   <si>
     <t>109247</t>
   </si>
   <si>
+    <t>00h 11m 43s</t>
+  </si>
+  <si>
     <t>00h 18m 31s</t>
   </si>
   <si>
     <t>21h 43m 35s</t>
   </si>
   <si>
-    <t>00h 11m 43s</t>
-  </si>
-  <si>
     <t>02h 00m 23s</t>
   </si>
   <si>
     <t>00h 57m 32s</t>
   </si>
   <si>
-    <t>12h 50m 01s</t>
+    <t>52h 50m 13s</t>
   </si>
   <si>
     <t>Ajuste: Exibindo modal de cupom não aplicado</t>
@@ -635,15 +929,21 @@
     <t>109143</t>
   </si>
   <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>00h 06m 14s</t>
+  </si>
+  <si>
+    <t>00h 46m 06s</t>
+  </si>
+  <si>
     <t>26h 42m 03s</t>
   </si>
   <si>
     <t>138h 46m 14s</t>
   </si>
   <si>
-    <t>00h 46m 06s</t>
-  </si>
-  <si>
     <t>00h 05m 39s</t>
   </si>
   <si>
@@ -653,133 +953,181 @@
     <t>01h 35m 07s</t>
   </si>
   <si>
-    <t>35h 51m 28s</t>
-  </si>
-  <si>
-    <t>REQUISIÇÃO - Termo de pesquisa no google -PENDENTE</t>
+    <t>75h 51m 40s</t>
+  </si>
+  <si>
+    <t>REQUISIÇÃO - Termo de pesquisa no google</t>
   </si>
   <si>
     <t>109218</t>
   </si>
   <si>
+    <t>29h 40m 21s</t>
+  </si>
+  <si>
     <t>94h 13m 54s</t>
   </si>
   <si>
-    <t>13h 23m 26s</t>
-  </si>
-  <si>
-    <t>REQUISIÇÃO - CADASTRO CLIENTES -PENDENTE</t>
+    <t>18h 41m 37s</t>
+  </si>
+  <si>
+    <t>05h 01m 40s</t>
+  </si>
+  <si>
+    <t>REQUISIÇÃO - CADASTRO CLIENTES</t>
   </si>
   <si>
     <t>108469</t>
   </si>
   <si>
+    <t>33h 23m 01s</t>
+  </si>
+  <si>
+    <t>824h 16m 22s</t>
+  </si>
+  <si>
     <t>384h 47m 42s</t>
   </si>
   <si>
-    <t>434h 54m 55s</t>
-  </si>
-  <si>
-    <t>824h 16m 22s</t>
+    <t>474h 55m 07s</t>
   </si>
   <si>
     <t>405h 35m 12s</t>
   </si>
   <si>
-    <t>REQUISIÇÃO - Limitar quantidades de refazer pagamentos via PIX -PENDENTE</t>
+    <t>REQUISIÇÃO - Limitar quantidades de refazer pagamentos via PIX</t>
   </si>
   <si>
     <t>109256</t>
   </si>
   <si>
+    <t>01h 45m 59s</t>
+  </si>
+  <si>
     <t>00h 00m 32s</t>
   </si>
   <si>
     <t>03h 44m 43s</t>
   </si>
   <si>
-    <t>01h 45m 59s</t>
-  </si>
-  <si>
-    <t>24h 30m 19s</t>
-  </si>
-  <si>
-    <t>01h 36m 00s</t>
-  </si>
-  <si>
-    <t>REQUISIÇÃO - Estorno PIX - devoluções -PENDENTE</t>
+    <t>54h 34m 04s</t>
+  </si>
+  <si>
+    <t>05h 00m 03s</t>
+  </si>
+  <si>
+    <t>06h 32m 24s</t>
+  </si>
+  <si>
+    <t>REQUISIÇÃO - Estorno PIX - devoluções</t>
   </si>
   <si>
     <t>109225</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>961,5%</t>
+  </si>
+  <si>
+    <t>56h 43m 46s</t>
+  </si>
+  <si>
+    <t>115h 22m 39s</t>
+  </si>
+  <si>
     <t>00h 09m 25s</t>
   </si>
   <si>
     <t>08h 29m 09s</t>
   </si>
   <si>
-    <t>91h 24m 33s</t>
-  </si>
-  <si>
-    <t>05h 43m 48s</t>
-  </si>
-  <si>
-    <t>00h 00m 23s</t>
-  </si>
-  <si>
-    <t>REQUISIÇÃO - Erro ao tentar solicitar TD -PENDENTE</t>
+    <t>18h 04m 44s</t>
+  </si>
+  <si>
+    <t>03h 41m 33s</t>
+  </si>
+  <si>
+    <t>REQUISIÇÃO - Erro ao tentar solicitar TD</t>
   </si>
   <si>
     <t>109222</t>
   </si>
   <si>
+    <t>2318,5%</t>
+  </si>
+  <si>
+    <t>08h 50m 01s</t>
+  </si>
+  <si>
+    <t>69h 33m 16s</t>
+  </si>
+  <si>
     <t>00h 01m 32s</t>
   </si>
   <si>
     <t>30h 35m 04s</t>
   </si>
   <si>
-    <t>69h 33m 16s</t>
-  </si>
-  <si>
-    <t>07h 33m 55s</t>
-  </si>
-  <si>
-    <t>REQUISIÇÃO - Reembolso não finalizado -PENDENTE</t>
+    <t>17h 02m 33s</t>
+  </si>
+  <si>
+    <t>00h 44m 38s</t>
+  </si>
+  <si>
+    <t>29h 46m 56s</t>
+  </si>
+  <si>
+    <t>REQUISIÇÃO - Reembolso não finalizado</t>
   </si>
   <si>
     <t>109224</t>
   </si>
   <si>
+    <t>3392,2%</t>
+  </si>
+  <si>
+    <t>08h 32m 20s</t>
+  </si>
+  <si>
+    <t>67h 50m 40s</t>
+  </si>
+  <si>
     <t>01h 44m 48s</t>
   </si>
   <si>
     <t>31h 19m 32s</t>
   </si>
   <si>
-    <t>67h 50m 40s</t>
-  </si>
-  <si>
     <t>00h 42m 39s</t>
   </si>
   <si>
-    <t>06h 24m 29s</t>
-  </si>
-  <si>
-    <t>REQUISIÇÃO - Ter como anexar laudo, para enviar junto a recusa da análise no e-mail. -PENDENTE</t>
+    <t>46h 24m 41s</t>
+  </si>
+  <si>
+    <t>REQUISIÇÃO - Ter como anexar laudo, para enviar junto a recusa da análise no e-mail.</t>
   </si>
   <si>
     <t>108953</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3976,2%</t>
+  </si>
+  <si>
+    <t>37h 10m 51s</t>
+  </si>
+  <si>
+    <t>636h 11m 48s</t>
+  </si>
+  <si>
     <t>00h 03m 48s</t>
   </si>
   <si>
-    <t>16h 41m 17s</t>
-  </si>
-  <si>
-    <t>632h 30m 56s</t>
+    <t>53h 00m 37s</t>
   </si>
   <si>
     <t>06h 46m 50s</t>
@@ -788,37 +1136,61 @@
     <t>01h 05m 01s</t>
   </si>
   <si>
-    <t>PROJETO -  Novas Regras para Embarque -PENDENTE</t>
-  </si>
-  <si>
-    <t>Diego Sena</t>
+    <t>PROJETO -  Novas Regras para Embarque</t>
   </si>
   <si>
     <t>108398</t>
   </si>
   <si>
+    <t>63h 14m 05s</t>
+  </si>
+  <si>
+    <t>1234h 08m 06s</t>
+  </si>
+  <si>
     <t>930h 38m 36s</t>
   </si>
   <si>
-    <t>161h 56m 57s</t>
-  </si>
-  <si>
-    <t>1217h 53m 04s</t>
-  </si>
-  <si>
-    <t>desenvolvimento inscrições live run -PENDENTE</t>
+    <t>179h 32m 53s</t>
+  </si>
+  <si>
+    <t>03h 43m 08s</t>
+  </si>
+  <si>
+    <t>02h 26m 06s</t>
+  </si>
+  <si>
+    <t>desenvolvimento inscrições live run</t>
+  </si>
+  <si>
+    <t>53h 15m 27s</t>
+  </si>
+  <si>
+    <t>489h 45m 24s</t>
   </si>
   <si>
     <t>594h 43m 07s</t>
   </si>
   <si>
-    <t>449h 45m 12s</t>
-  </si>
-  <si>
     <t>337h 05m 48s</t>
   </si>
   <si>
     <t>00h 01m 13s</t>
+  </si>
+  <si>
+    <t>Relatório Kanban-API</t>
+  </si>
+  <si>
+    <t>Mateus Almeida de Vergennes</t>
+  </si>
+  <si>
+    <t>05h 27m 56s</t>
+  </si>
+  <si>
+    <t>00h 00m 02s</t>
+  </si>
+  <si>
+    <t>00h 23m 31s</t>
   </si>
 </sst>
 </file>
@@ -863,7 +1235,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -918,1803 +1290,2583 @@
       <c r="P1" t="s" s="0">
         <v>15</v>
       </c>
+      <c r="Q1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s" s="0">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R4" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q5" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R5" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>20</v>
+        <v>68</v>
+      </c>
+      <c r="Q6" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="R6" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R7" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R8" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R9" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="P10" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q10" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R10" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M11" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N11" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O11" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P11" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q11" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R11" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s" s="0">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L12" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M12" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N12" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O12" t="s" s="0">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="P12" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q12" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R12" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s" s="0">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L13" t="s" s="0">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="M13" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N13" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O13" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P13" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q13" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="R13" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s" s="0">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L14" t="s" s="0">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N14" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O14" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P14" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q14" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R14" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="L15" t="s" s="0">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="M15" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N15" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O15" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P15" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q15" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R15" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="J16" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L16" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M16" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N16" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O16" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P16" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q16" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="R16" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="I17" t="s" s="0">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="J17" t="s" s="0">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="L17" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M17" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N17" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O17" t="s" s="0">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="P17" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q17" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R17" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="J18" t="s" s="0">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="L18" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M18" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N18" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O18" t="s" s="0">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="P18" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q18" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R18" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="I19" t="s" s="0">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="J19" t="s" s="0">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="K19" t="s" s="0">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="L19" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M19" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N19" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O19" t="s" s="0">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="P19" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q19" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R19" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="I20" t="s" s="0">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="J20" t="s" s="0">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="K20" t="s" s="0">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="L20" t="s" s="0">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="M20" t="s" s="0">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="N20" t="s" s="0">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="O20" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P20" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q20" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R20" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="J21" t="s" s="0">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s" s="0">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="L21" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M21" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N21" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O21" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P21" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q21" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R21" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="J22" t="s" s="0">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="K22" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L22" t="s" s="0">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s" s="0">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="N22" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O22" t="s" s="0">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="P22" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q22" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="R22" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>25</v>
+        <v>192</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="I23" t="s" s="0">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="J23" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K23" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L23" t="s" s="0">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="M23" t="s" s="0">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="N23" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O23" t="s" s="0">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="P23" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q23" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="R23" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="I24" t="s" s="0">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="J24" t="s" s="0">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="K24" t="s" s="0">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="L24" t="s" s="0">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="M24" t="s" s="0">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="N24" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O24" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P24" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q24" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="R24" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="I25" t="s" s="0">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="J25" t="s" s="0">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="K25" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L25" t="s" s="0">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="0">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="N25" t="s" s="0">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="O25" t="s" s="0">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="P25" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q25" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R25" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="G26" t="s" s="0">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="I26" t="s" s="0">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="J26" t="s" s="0">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="K26" t="s" s="0">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="L26" t="s" s="0">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c r="M26" t="s" s="0">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="N26" t="s" s="0">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c r="O26" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P26" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q26" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R26" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="I27" t="s" s="0">
-        <v>20</v>
+        <v>229</v>
       </c>
       <c r="J27" t="s" s="0">
-        <v>202</v>
+        <v>28</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="L27" t="s" s="0">
-        <v>204</v>
+        <v>28</v>
       </c>
       <c r="M27" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N27" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O27" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P27" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q27" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="R27" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="I28" t="s" s="0">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="J28" t="s" s="0">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K28" t="s" s="0">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="L28" t="s" s="0">
-        <v>212</v>
+        <v>28</v>
       </c>
       <c r="M28" t="s" s="0">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="N28" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O28" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P28" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q28" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="R28" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="I29" t="s" s="0">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="J29" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K29" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L29" t="s" s="0">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c r="M29" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N29" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O29" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P29" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q29" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R29" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="I30" t="s" s="0">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="J30" t="s" s="0">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="K30" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L30" t="s" s="0">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="M30" t="s" s="0">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="N30" t="s" s="0">
-        <v>20</v>
+        <v>249</v>
       </c>
       <c r="O30" t="s" s="0">
-        <v>223</v>
+        <v>28</v>
       </c>
       <c r="P30" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q30" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R30" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>226</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="I31" t="s" s="0">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="J31" t="s" s="0">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="K31" t="s" s="0">
-        <v>230</v>
+        <v>28</v>
       </c>
       <c r="L31" t="s" s="0">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="M31" t="s" s="0">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c r="N31" t="s" s="0">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="O31" t="s" s="0">
-        <v>20</v>
+        <v>259</v>
       </c>
       <c r="P31" t="s" s="0">
-        <v>20</v>
+        <v>260</v>
+      </c>
+      <c r="Q31" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="R31" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>129</v>
+        <v>263</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>233</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s" s="0">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="I32" t="s" s="0">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="J32" t="s" s="0">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="K32" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L32" t="s" s="0">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="M32" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N32" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O32" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P32" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q32" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="R32" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>129</v>
+        <v>263</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="G33" t="s" s="0">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="I33" t="s" s="0">
-        <v>20</v>
+        <v>276</v>
       </c>
       <c r="J33" t="s" s="0">
-        <v>243</v>
+        <v>28</v>
       </c>
       <c r="K33" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L33" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M33" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N33" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O33" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P33" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q33" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R33" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>129</v>
+        <v>263</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s" s="0">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="I34" t="s" s="0">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="J34" t="s" s="0">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="K34" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L34" t="s" s="0">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="M34" t="s" s="0">
-        <v>20</v>
+        <v>284</v>
       </c>
       <c r="N34" t="s" s="0">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="O34" t="s" s="0">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="P34" t="s" s="0">
-        <v>20</v>
+        <v>287</v>
+      </c>
+      <c r="Q34" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="R34" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>129</v>
+        <v>290</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s" s="0">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="I35" t="s" s="0">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="J35" t="s" s="0">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="K35" t="s" s="0">
-        <v>257</v>
+        <v>28</v>
       </c>
       <c r="L35" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M35" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N35" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O35" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P35" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q35" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R35" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>259</v>
+        <v>154</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>261</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s" s="0">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="H36" t="s" s="0">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="I36" t="s" s="0">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="J36" t="s" s="0">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="K36" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L36" t="s" s="0">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="M36" t="s" s="0">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="N36" t="s" s="0">
-        <v>20</v>
+        <v>302</v>
       </c>
       <c r="O36" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P36" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="Q36" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R36" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D37" s="0"/>
+      <c r="D37" t="s" s="0">
+        <v>304</v>
+      </c>
       <c r="E37" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="I37" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="J37" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="K37" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L37" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="M37" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="N37" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="O37" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="P37" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="Q37" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R37" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="H38" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="I38" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="J38" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="K38" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L38" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="M38" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N38" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="O38" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P38" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="Q38" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R38" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="I39" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="J39" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="K39" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L39" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="M39" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N39" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="O39" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P39" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="Q39" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="R39" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="I40" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="J40" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="K40" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L40" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="M40" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="N40" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="O40" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P40" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="Q40" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R40" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C41" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="0">
+      <c r="D41" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="H41" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="I41" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="J41" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="K41" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="L41" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="M41" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N41" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="O41" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P41" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="Q41" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R41" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C42" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="G37" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="H37" t="s" s="0">
-        <v>266</v>
-      </c>
-      <c r="I37" t="s" s="0">
+      <c r="D42" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="H42" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="I42" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="J42" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="K42" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L42" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="M42" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="N42" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="O42" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P42" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="Q42" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R42" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C43" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J37" t="s" s="0">
+      <c r="D43" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="H43" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="I43" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="J43" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="K43" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L43" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="M43" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N43" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="O43" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P43" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="Q43" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="R43" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C44" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="K37" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="L37" t="s" s="0">
-        <v>268</v>
-      </c>
-      <c r="M37" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="N37" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="O37" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="P37" t="s" s="0">
-        <v>20</v>
+      <c r="D44" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="I44" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="J44" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="K44" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L44" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="M44" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="N44" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="O44" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P44" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="Q44" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R44" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="H45" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="I45" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="J45" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="K45" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L45" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="M45" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="N45" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="O45" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P45" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="Q45" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R45" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D46" s="0"/>
+      <c r="E46" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="H46" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="I46" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="J46" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="K46" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L46" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="M46" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="N46" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="O46" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P46" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="Q46" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R46" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D47" s="0"/>
+      <c r="E47" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F47" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="H47" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="I47" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="J47" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="K47" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L47" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="M47" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="N47" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="O47" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P47" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="Q47" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="R47" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
